--- a/data/BGA.xlsx
+++ b/data/BGA.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Tournois en mode suisse" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Tournois double élimination" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Classement final" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Suisse" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Double" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Classement" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Tournois en mode suisse'!$D$1:$D$1000</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Suisse!$D$1:$D$1000</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -4428,37 +4428,37 @@
         <v>20</v>
       </c>
       <c r="E2" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A2&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A2&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="F2" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A2&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A2&amp;"*")</f>
         <v>2</v>
       </c>
       <c r="G2" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A2&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A2&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H2" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A2&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A2&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A2&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A2&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A2&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A2&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A2&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A2&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A2&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A2&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="I2" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A2&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A2&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J2" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A2&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A2&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="K2" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A2&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A2&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L2" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A2&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A2&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -4478,37 +4478,37 @@
         <v>45</v>
       </c>
       <c r="E3" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A3&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A3&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F3" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A3&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A3&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G3" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A3&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A3&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H3" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A3&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A3&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A3&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A3&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A3&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A3&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A3&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A3&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A3&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A3&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="I3" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A3&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A3&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J3" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A3&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A3&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K3" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A3&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A3&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="L3" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A3&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A3&amp;"*")
 </f>
         <v>1</v>
       </c>
@@ -4528,37 +4528,37 @@
         <v>57</v>
       </c>
       <c r="E4" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A4&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A4&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F4" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A4&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A4&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G4" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A4&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A4&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H4" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A4&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A4&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A4&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A4&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A4&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A4&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A4&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A4&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A4&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A4&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="I4" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A4&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A4&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J4" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A4&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A4&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K4" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A4&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A4&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L4" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A4&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A4&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -4578,37 +4578,37 @@
         <v>37</v>
       </c>
       <c r="E5" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A5&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A5&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F5" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A5&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A5&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G5" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A5&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A5&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H5" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A5&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A5&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A5&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A5&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A5&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A5&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A5&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A5&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A5&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A5&amp;"*")</f>
         <v>4</v>
       </c>
       <c r="I5" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A5&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A5&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J5" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A5&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A5&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K5" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A5&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A5&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L5" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A5&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A5&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -4628,37 +4628,37 @@
         <v>61</v>
       </c>
       <c r="E6" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A6&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A6&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F6" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A6&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A6&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G6" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A6&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A6&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H6" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A6&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A6&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A6&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A6&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A6&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A6&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A6&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A6&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A6&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A6&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="I6" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A6&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A6&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J6" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A6&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A6&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K6" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A6&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A6&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L6" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A6&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A6&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -4678,37 +4678,37 @@
         <v>2</v>
       </c>
       <c r="E7" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A7&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A7&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="F7" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A7&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A7&amp;"*")</f>
         <v>2</v>
       </c>
       <c r="G7" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A7&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A7&amp;"*")</f>
         <v>2</v>
       </c>
       <c r="H7" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A7&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A7&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A7&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A7&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A7&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A7&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A7&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A7&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A7&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A7&amp;"*")</f>
         <v>9</v>
       </c>
       <c r="I7" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A7&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A7&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="J7" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A7&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A7&amp;"*")
 </f>
         <v>5</v>
       </c>
       <c r="K7" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A7&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A7&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="L7" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A7&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A7&amp;"*")
 </f>
         <v>2</v>
       </c>
@@ -4728,37 +4728,37 @@
         <v>62</v>
       </c>
       <c r="E8" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A8&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A8&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F8" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A8&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A8&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G8" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A8&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A8&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H8" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A8&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A8&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A8&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A8&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A8&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A8&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A8&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A8&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A8&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A8&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="I8" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A8&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A8&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J8" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A8&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A8&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K8" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A8&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A8&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L8" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A8&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A8&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -4778,37 +4778,37 @@
         <v>41</v>
       </c>
       <c r="E9" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A9&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A9&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="F9" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A9&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A9&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G9" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A9&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A9&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H9" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A9&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A9&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A9&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A9&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A9&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A9&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A9&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A9&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A9&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A9&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="I9" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A9&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A9&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J9" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A9&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A9&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K9" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A9&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A9&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L9" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A9&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A9&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -4828,37 +4828,37 @@
         <v>38</v>
       </c>
       <c r="E10" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A10&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A10&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F10" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A10&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A10&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G10" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A10&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A10&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H10" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A10&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A10&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A10&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A10&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A10&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A10&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A10&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A10&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A10&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A10&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="I10" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A10&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A10&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J10" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A10&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A10&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="K10" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A10&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A10&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L10" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A10&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A10&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -4878,37 +4878,37 @@
         <v>42</v>
       </c>
       <c r="E11" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A11&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A11&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="F11" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A11&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A11&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G11" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A11&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A11&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H11" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A11&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A11&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A11&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A11&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A11&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A11&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A11&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A11&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A11&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A11&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="I11" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A11&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A11&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J11" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A11&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A11&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K11" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A11&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A11&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L11" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A11&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A11&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -4928,37 +4928,37 @@
         <v>49</v>
       </c>
       <c r="E12" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A12&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A12&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F12" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A12&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A12&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G12" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A12&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A12&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H12" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A12&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A12&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A12&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A12&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A12&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A12&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A12&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A12&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A12&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A12&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="I12" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A12&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A12&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J12" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A12&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A12&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K12" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A12&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A12&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L12" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A12&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A12&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -4978,37 +4978,37 @@
         <v>23</v>
       </c>
       <c r="E13" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A13&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A13&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="F13" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A13&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A13&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G13" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A13&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A13&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H13" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A13&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A13&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A13&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A13&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A13&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A13&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A13&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A13&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A13&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A13&amp;"*")</f>
         <v>2</v>
       </c>
       <c r="I13" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A13&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A13&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J13" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A13&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A13&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K13" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A13&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A13&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L13" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A13&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A13&amp;"*")
 </f>
         <v>4</v>
       </c>
@@ -5028,37 +5028,37 @@
         <v>60</v>
       </c>
       <c r="E14" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A14&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A14&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F14" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A14&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A14&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G14" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A14&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A14&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H14" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A14&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A14&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A14&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A14&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A14&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A14&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A14&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A14&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A14&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A14&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="I14" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A14&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A14&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J14" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A14&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A14&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K14" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A14&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A14&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L14" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A14&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A14&amp;"*")
 </f>
         <v>1</v>
       </c>
@@ -5078,37 +5078,37 @@
         <v>31</v>
       </c>
       <c r="E15" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A15&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A15&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="F15" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A15&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A15&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G15" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A15&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A15&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H15" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A15&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A15&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A15&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A15&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A15&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A15&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A15&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A15&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A15&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A15&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="I15" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A15&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A15&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J15" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A15&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A15&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="K15" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A15&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A15&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L15" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A15&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A15&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -5128,37 +5128,37 @@
         <v>33</v>
       </c>
       <c r="E16" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A16&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A16&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F16" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A16&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A16&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G16" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A16&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A16&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H16" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A16&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A16&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A16&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A16&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A16&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A16&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A16&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A16&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A16&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A16&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="I16" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A16&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A16&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J16" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A16&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A16&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="K16" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A16&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A16&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L16" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A16&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A16&amp;"*")
 </f>
         <v>1</v>
       </c>
@@ -5178,37 +5178,37 @@
         <v>25</v>
       </c>
       <c r="E17" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A17&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A17&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F17" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A17&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A17&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G17" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A17&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A17&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H17" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A17&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A17&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A17&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A17&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A17&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A17&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A17&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A17&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A17&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A17&amp;"*")</f>
         <v>4</v>
       </c>
       <c r="I17" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A17&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A17&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J17" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A17&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A17&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="K17" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A17&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A17&amp;"*")</f>
         <v>2</v>
       </c>
       <c r="L17" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A17&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A17&amp;"*")
 </f>
         <v>1</v>
       </c>
@@ -5228,37 +5228,37 @@
         <v>44</v>
       </c>
       <c r="E18" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A18&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A18&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F18" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A18&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A18&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G18" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A18&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A18&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H18" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A18&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A18&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A18&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A18&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A18&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A18&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A18&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A18&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A18&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A18&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="I18" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A18&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A18&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J18" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A18&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A18&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K18" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A18&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A18&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L18" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A18&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A18&amp;"*")
 </f>
         <v>2</v>
       </c>
@@ -5278,37 +5278,37 @@
         <v>21</v>
       </c>
       <c r="E19" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A19&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A19&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F19" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A19&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A19&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="G19" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A19&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A19&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H19" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A19&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A19&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A19&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A19&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A19&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A19&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A19&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A19&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A19&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A19&amp;"*")</f>
         <v>5</v>
       </c>
       <c r="I19" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A19&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A19&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J19" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A19&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A19&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K19" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A19&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A19&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L19" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A19&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A19&amp;"*")
 </f>
         <v>5</v>
       </c>
@@ -5328,37 +5328,37 @@
         <v>62</v>
       </c>
       <c r="E20" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A20&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A20&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F20" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A20&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A20&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G20" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A20&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A20&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H20" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A20&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A20&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A20&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A20&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A20&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A20&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A20&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A20&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A20&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A20&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="I20" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A20&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A20&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J20" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A20&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A20&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K20" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A20&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A20&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L20" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A20&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A20&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -5378,37 +5378,37 @@
         <v>13</v>
       </c>
       <c r="E21" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A21&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A21&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="F21" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A21&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A21&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G21" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A21&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A21&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H21" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A21&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A21&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A21&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A21&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A21&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A21&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A21&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A21&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A21&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A21&amp;"*")</f>
         <v>2</v>
       </c>
       <c r="I21" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A21&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A21&amp;"*")</f>
         <v>2</v>
       </c>
       <c r="J21" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A21&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A21&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K21" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A21&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A21&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="L21" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A21&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A21&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -5428,37 +5428,37 @@
         <v>33</v>
       </c>
       <c r="E22" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A22&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A22&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="F22" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A22&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A22&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G22" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A22&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A22&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H22" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A22&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A22&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A22&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A22&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A22&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A22&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A22&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A22&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A22&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A22&amp;"*")</f>
         <v>3</v>
       </c>
       <c r="I22" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A22&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A22&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J22" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A22&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A22&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K22" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A22&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A22&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L22" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A22&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A22&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -5478,37 +5478,37 @@
         <v>59</v>
       </c>
       <c r="E23" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A23&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A23&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F23" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A23&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A23&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G23" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A23&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A23&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H23" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A23&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A23&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A23&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A23&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A23&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A23&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A23&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A23&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A23&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A23&amp;"*")</f>
         <v>2</v>
       </c>
       <c r="I23" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A23&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A23&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J23" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A23&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A23&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K23" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A23&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A23&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L23" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A23&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A23&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -5528,37 +5528,37 @@
         <v>11</v>
       </c>
       <c r="E24" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A24&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A24&amp;"*")
 </f>
         <v>2</v>
       </c>
       <c r="F24" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A24&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A24&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G24" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A24&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A24&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H24" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A24&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A24&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A24&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A24&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A24&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A24&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A24&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A24&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A24&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A24&amp;"*")</f>
         <v>5</v>
       </c>
       <c r="I24" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A24&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A24&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J24" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A24&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A24&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="K24" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A24&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A24&amp;"*")</f>
         <v>2</v>
       </c>
       <c r="L24" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A24&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A24&amp;"*")
 </f>
         <v>1</v>
       </c>
@@ -5578,37 +5578,37 @@
         <v>8</v>
       </c>
       <c r="E25" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A25&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A25&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F25" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A25&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A25&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="G25" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A25&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A25&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H25" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A25&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A25&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A25&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A25&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A25&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A25&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A25&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A25&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A25&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A25&amp;"*")</f>
         <v>10</v>
       </c>
       <c r="I25" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A25&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A25&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J25" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A25&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A25&amp;"*")
 </f>
         <v>2</v>
       </c>
       <c r="K25" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A25&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A25&amp;"*")</f>
         <v>3</v>
       </c>
       <c r="L25" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A25&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A25&amp;"*")
 </f>
         <v>3</v>
       </c>
@@ -5628,37 +5628,37 @@
         <v>24</v>
       </c>
       <c r="E26" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A26&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A26&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="F26" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A26&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A26&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G26" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A26&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A26&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H26" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A26&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A26&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A26&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A26&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A26&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A26&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A26&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A26&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A26&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A26&amp;"*")</f>
         <v>6</v>
       </c>
       <c r="I26" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A26&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A26&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J26" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A26&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A26&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K26" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A26&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A26&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L26" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A26&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A26&amp;"*")
 </f>
         <v>2</v>
       </c>
@@ -5678,37 +5678,37 @@
         <v>3</v>
       </c>
       <c r="E27" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A27&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A27&amp;"*")
 </f>
         <v>3</v>
       </c>
       <c r="F27" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A27&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A27&amp;"*")</f>
         <v>2</v>
       </c>
       <c r="G27" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A27&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A27&amp;"*")</f>
         <v>2</v>
       </c>
       <c r="H27" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A27&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A27&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A27&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A27&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A27&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A27&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A27&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A27&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A27&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A27&amp;"*")</f>
         <v>9</v>
       </c>
       <c r="I27" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A27&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A27&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J27" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A27&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A27&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="K27" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A27&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A27&amp;"*")</f>
         <v>2</v>
       </c>
       <c r="L27" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A27&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A27&amp;"*")
 </f>
         <v>5</v>
       </c>
@@ -5728,37 +5728,37 @@
         <v>18</v>
       </c>
       <c r="E28" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A28&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A28&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="F28" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A28&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A28&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="G28" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A28&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A28&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H28" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A28&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A28&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A28&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A28&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A28&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A28&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A28&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A28&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A28&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A28&amp;"*")</f>
         <v>4</v>
       </c>
       <c r="I28" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A28&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A28&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J28" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A28&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A28&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K28" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A28&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A28&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="L28" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A28&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A28&amp;"*")
 </f>
         <v>3</v>
       </c>
@@ -5778,37 +5778,37 @@
         <v>49</v>
       </c>
       <c r="E29" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A29&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A29&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F29" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A29&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A29&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G29" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A29&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A29&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H29" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A29&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A29&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A29&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A29&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A29&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A29&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A29&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A29&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A29&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A29&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="I29" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A29&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A29&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J29" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A29&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A29&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K29" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A29&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A29&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="L29" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A29&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A29&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -5828,37 +5828,37 @@
         <v>55</v>
       </c>
       <c r="E30" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A30&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A30&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F30" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A30&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A30&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G30" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A30&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A30&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H30" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A30&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A30&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A30&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A30&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A30&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A30&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A30&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A30&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A30&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A30&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="I30" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A30&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A30&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J30" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A30&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A30&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K30" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A30&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A30&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L30" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A30&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A30&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -5878,37 +5878,37 @@
         <v>4</v>
       </c>
       <c r="E31" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A31&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A31&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="F31" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A31&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A31&amp;"*")</f>
         <v>2</v>
       </c>
       <c r="G31" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A31&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A31&amp;"*")</f>
         <v>3</v>
       </c>
       <c r="H31" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A31&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A31&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A31&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A31&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A31&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A31&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A31&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A31&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A31&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A31&amp;"*")</f>
         <v>7</v>
       </c>
       <c r="I31" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A31&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A31&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J31" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A31&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A31&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="K31" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A31&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A31&amp;"*")</f>
         <v>5</v>
       </c>
       <c r="L31" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A31&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A31&amp;"*")
 </f>
         <v>4</v>
       </c>
@@ -5928,37 +5928,37 @@
         <v>69</v>
       </c>
       <c r="E32" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A32&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A32&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F32" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A32&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A32&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G32" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A32&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A32&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H32" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A32&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A32&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A32&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A32&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A32&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A32&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A32&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A32&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A32&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A32&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="I32" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A32&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A32&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J32" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A32&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A32&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K32" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A32&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A32&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L32" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A32&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A32&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -5978,37 +5978,37 @@
         <v>58</v>
       </c>
       <c r="E33" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A33&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A33&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F33" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A33&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A33&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G33" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A33&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A33&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H33" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A33&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A33&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A33&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A33&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A33&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A33&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A33&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A33&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A33&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A33&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="I33" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A33&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A33&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J33" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A33&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A33&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K33" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A33&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A33&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L33" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A33&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A33&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -6028,37 +6028,37 @@
         <v>49</v>
       </c>
       <c r="E34" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A34&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A34&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F34" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A34&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A34&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G34" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A34&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A34&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H34" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A34&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A34&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A34&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A34&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A34&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A34&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A34&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A34&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A34&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A34&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="I34" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A34&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A34&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J34" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A34&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A34&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K34" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A34&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A34&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L34" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A34&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A34&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -6078,37 +6078,37 @@
         <v>10</v>
       </c>
       <c r="E35" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A35&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A35&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F35" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A35&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A35&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="G35" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A35&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A35&amp;"*")</f>
         <v>2</v>
       </c>
       <c r="H35" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A35&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A35&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A35&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A35&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A35&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A35&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A35&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A35&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A35&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A35&amp;"*")</f>
         <v>10</v>
       </c>
       <c r="I35" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A35&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A35&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J35" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A35&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A35&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K35" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A35&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A35&amp;"*")</f>
         <v>2</v>
       </c>
       <c r="L35" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A35&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A35&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -6128,37 +6128,37 @@
         <v>46</v>
       </c>
       <c r="E36" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A36&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A36&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F36" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A36&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A36&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G36" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A36&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A36&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H36" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A36&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A36&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A36&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A36&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A36&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A36&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A36&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A36&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A36&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A36&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="I36" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A36&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A36&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J36" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A36&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A36&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K36" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A36&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A36&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L36" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A36&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A36&amp;"*")
 </f>
         <v>1</v>
       </c>
@@ -6178,37 +6178,37 @@
         <v>19</v>
       </c>
       <c r="E37" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A37&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A37&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="F37" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A37&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A37&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G37" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A37&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A37&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H37" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A37&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A37&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A37&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A37&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A37&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A37&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A37&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A37&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A37&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A37&amp;"*")</f>
         <v>5</v>
       </c>
       <c r="I37" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A37&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A37&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J37" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A37&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A37&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K37" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A37&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A37&amp;"*")</f>
         <v>2</v>
       </c>
       <c r="L37" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A37&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A37&amp;"*")
 </f>
         <v>1</v>
       </c>
@@ -6228,37 +6228,37 @@
         <v>39</v>
       </c>
       <c r="E38" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A38&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A38&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F38" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A38&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A38&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G38" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A38&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A38&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H38" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A38&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A38&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A38&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A38&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A38&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A38&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A38&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A38&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A38&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A38&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="I38" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A38&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A38&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J38" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A38&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A38&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="K38" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A38&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A38&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L38" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A38&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A38&amp;"*")
 </f>
         <v>2</v>
       </c>
@@ -6278,37 +6278,37 @@
         <v>1</v>
       </c>
       <c r="E39" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A39&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A39&amp;"*")
 </f>
         <v>3</v>
       </c>
       <c r="F39" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A39&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A39&amp;"*")</f>
         <v>2</v>
       </c>
       <c r="G39" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A39&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A39&amp;"*")</f>
         <v>5</v>
       </c>
       <c r="H39" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A39&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A39&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A39&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A39&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A39&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A39&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A39&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A39&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A39&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A39&amp;"*")</f>
         <v>11</v>
       </c>
       <c r="I39" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A39&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A39&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J39" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A39&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A39&amp;"*")
 </f>
         <v>4</v>
       </c>
       <c r="K39" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A39&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A39&amp;"*")</f>
         <v>2</v>
       </c>
       <c r="L39" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A39&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A39&amp;"*")
 </f>
         <v>4</v>
       </c>
@@ -6328,37 +6328,37 @@
         <v>7</v>
       </c>
       <c r="E40" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A40&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A40&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="F40" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A40&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A40&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G40" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A40&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A40&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="H40" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A40&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A40&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A40&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A40&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A40&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A40&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A40&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A40&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A40&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A40&amp;"*")</f>
         <v>9</v>
       </c>
       <c r="I40" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A40&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A40&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J40" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A40&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A40&amp;"*")
 </f>
         <v>3</v>
       </c>
       <c r="K40" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A40&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A40&amp;"*")</f>
         <v>3</v>
       </c>
       <c r="L40" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A40&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A40&amp;"*")
 </f>
         <v>4</v>
       </c>
@@ -6378,37 +6378,37 @@
         <v>28</v>
       </c>
       <c r="E41" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A41&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A41&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F41" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A41&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A41&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G41" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A41&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A41&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="H41" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A41&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A41&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A41&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A41&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A41&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A41&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A41&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A41&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A41&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A41&amp;"*")</f>
         <v>5</v>
       </c>
       <c r="I41" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A41&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A41&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J41" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A41&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A41&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K41" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A41&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A41&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="L41" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A41&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A41&amp;"*")
 </f>
         <v>1</v>
       </c>
@@ -6428,37 +6428,37 @@
         <v>6</v>
       </c>
       <c r="E42" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A42&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A42&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F42" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A42&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A42&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="G42" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A42&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A42&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="H42" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A42&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A42&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A42&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A42&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A42&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A42&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A42&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A42&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A42&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A42&amp;"*")</f>
         <v>14</v>
       </c>
       <c r="I42" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A42&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A42&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="J42" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A42&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A42&amp;"*")
 </f>
         <v>2</v>
       </c>
       <c r="K42" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A42&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A42&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="L42" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A42&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A42&amp;"*")
 </f>
         <v>6</v>
       </c>
@@ -6478,37 +6478,37 @@
         <v>62</v>
       </c>
       <c r="E43" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A43&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A43&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F43" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A43&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A43&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G43" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A43&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A43&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H43" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A43&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A43&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A43&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A43&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A43&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A43&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A43&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A43&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A43&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A43&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="I43" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A43&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A43&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J43" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A43&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A43&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K43" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A43&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A43&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L43" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A43&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A43&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -6528,37 +6528,37 @@
         <v>62</v>
       </c>
       <c r="E44" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A44&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A44&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F44" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A44&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A44&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G44" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A44&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A44&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H44" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A44&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A44&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A44&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A44&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A44&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A44&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A44&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A44&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A44&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A44&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="I44" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A44&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A44&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J44" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A44&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A44&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K44" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A44&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A44&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L44" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A44&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A44&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -6578,37 +6578,37 @@
         <v>14</v>
       </c>
       <c r="E45" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A45&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A45&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F45" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A45&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A45&amp;"*")</f>
         <v>2</v>
       </c>
       <c r="G45" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A45&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A45&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="H45" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A45&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A45&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A45&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A45&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A45&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A45&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A45&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A45&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A45&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A45&amp;"*")</f>
         <v>6</v>
       </c>
       <c r="I45" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A45&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A45&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J45" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A45&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A45&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K45" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A45&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A45&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L45" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A45&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A45&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -6628,37 +6628,37 @@
         <v>12</v>
       </c>
       <c r="E46" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A46&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A46&amp;"*")
 </f>
         <v>2</v>
       </c>
       <c r="F46" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A46&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A46&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="G46" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A46&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A46&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="H46" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A46&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A46&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A46&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A46&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A46&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A46&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A46&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A46&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A46&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A46&amp;"*")</f>
         <v>3</v>
       </c>
       <c r="I46" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A46&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A46&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J46" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A46&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A46&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K46" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A46&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A46&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L46" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A46&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A46&amp;"*")
 </f>
         <v>3</v>
       </c>
@@ -6678,37 +6678,37 @@
         <v>62</v>
       </c>
       <c r="E47" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A47&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A47&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F47" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A47&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A47&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G47" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A47&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A47&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H47" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A47&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A47&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A47&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A47&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A47&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A47&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A47&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A47&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A47&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A47&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="I47" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A47&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A47&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J47" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A47&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A47&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K47" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A47&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A47&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L47" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A47&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A47&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -6728,37 +6728,37 @@
         <v>22</v>
       </c>
       <c r="E48" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A48&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A48&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F48" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A48&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A48&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="G48" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A48&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A48&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H48" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A48&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A48&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A48&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A48&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A48&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A48&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A48&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A48&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A48&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A48&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="I48" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A48&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A48&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="J48" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A48&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A48&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="K48" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A48&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A48&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L48" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A48&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A48&amp;"*")
 </f>
         <v>1</v>
       </c>
@@ -6778,37 +6778,37 @@
         <v>48</v>
       </c>
       <c r="E49" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A49&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A49&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F49" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A49&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A49&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G49" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A49&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A49&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H49" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A49&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A49&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A49&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A49&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A49&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A49&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A49&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A49&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A49&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A49&amp;"*")</f>
         <v>3</v>
       </c>
       <c r="I49" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A49&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A49&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J49" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A49&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A49&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K49" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A49&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A49&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L49" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A49&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A49&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -6828,37 +6828,37 @@
         <v>40</v>
       </c>
       <c r="E50" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A50&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A50&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="F50" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A50&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A50&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G50" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A50&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A50&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H50" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A50&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A50&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A50&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A50&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A50&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A50&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A50&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A50&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A50&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A50&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="I50" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A50&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A50&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J50" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A50&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A50&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K50" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A50&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A50&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L50" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A50&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A50&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -6878,37 +6878,37 @@
         <v>26</v>
       </c>
       <c r="E51" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A51&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A51&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F51" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A51&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A51&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G51" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A51&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A51&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H51" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A51&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A51&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A51&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A51&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A51&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A51&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A51&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A51&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A51&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A51&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="I51" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A51&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A51&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="J51" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A51&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A51&amp;"*")
 </f>
         <v>2</v>
       </c>
       <c r="K51" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A51&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A51&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L51" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A51&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A51&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -6928,37 +6928,37 @@
         <v>56</v>
       </c>
       <c r="E52" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A52&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A52&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F52" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A52&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A52&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G52" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A52&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A52&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H52" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A52&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A52&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A52&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A52&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A52&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A52&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A52&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A52&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A52&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A52&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="I52" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A52&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A52&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J52" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A52&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A52&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K52" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A52&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A52&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L52" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A52&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A52&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -6978,37 +6978,37 @@
         <v>35</v>
       </c>
       <c r="E53" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A53&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A53&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F53" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A53&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A53&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G53" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A53&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A53&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="H53" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A53&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A53&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A53&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A53&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A53&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A53&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A53&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A53&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A53&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A53&amp;"*")</f>
         <v>2</v>
       </c>
       <c r="I53" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A53&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A53&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J53" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A53&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A53&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K53" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A53&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A53&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L53" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A53&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A53&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -7028,37 +7028,37 @@
         <v>30</v>
       </c>
       <c r="E54" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A54&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A54&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F54" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A54&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A54&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G54" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A54&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A54&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H54" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A54&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A54&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A54&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A54&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A54&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A54&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A54&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A54&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A54&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A54&amp;"*")</f>
         <v>4</v>
       </c>
       <c r="I54" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A54&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A54&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J54" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A54&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A54&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K54" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A54&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A54&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="L54" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A54&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A54&amp;"*")
 </f>
         <v>4</v>
       </c>
@@ -7078,37 +7078,37 @@
         <v>15</v>
       </c>
       <c r="E55" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A55&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A55&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="F55" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A55&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A55&amp;"*")</f>
         <v>3</v>
       </c>
       <c r="G55" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A55&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A55&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H55" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A55&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A55&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A55&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A55&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A55&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A55&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A55&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A55&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A55&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A55&amp;"*")</f>
         <v>4</v>
       </c>
       <c r="I55" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A55&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A55&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J55" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A55&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A55&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K55" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A55&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A55&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L55" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A55&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A55&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -7128,37 +7128,37 @@
         <v>5</v>
       </c>
       <c r="E56" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A56&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A56&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F56" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A56&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A56&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G56" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A56&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A56&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="H56" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A56&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A56&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A56&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A56&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A56&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A56&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A56&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A56&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A56&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A56&amp;"*")</f>
         <v>10</v>
       </c>
       <c r="I56" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A56&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A56&amp;"*")</f>
         <v>3</v>
       </c>
       <c r="J56" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A56&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A56&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="K56" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A56&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A56&amp;"*")</f>
         <v>2</v>
       </c>
       <c r="L56" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A56&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A56&amp;"*")
 </f>
         <v>3</v>
       </c>
@@ -7178,37 +7178,37 @@
         <v>46</v>
       </c>
       <c r="E57" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A57&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A57&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F57" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A57&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A57&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G57" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A57&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A57&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="H57" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A57&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A57&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A57&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A57&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A57&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A57&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A57&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A57&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A57&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A57&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="I57" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A57&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A57&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J57" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A57&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A57&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K57" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A57&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A57&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L57" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A57&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A57&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -7228,37 +7228,37 @@
         <v>36</v>
       </c>
       <c r="E58" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A58&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A58&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="F58" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A58&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A58&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G58" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A58&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A58&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H58" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A58&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A58&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A58&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A58&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A58&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A58&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A58&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A58&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A58&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A58&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="I58" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A58&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A58&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J58" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A58&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A58&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K58" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A58&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A58&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L58" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A58&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A58&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -7278,37 +7278,37 @@
         <v>49</v>
       </c>
       <c r="E59" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A59&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A59&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F59" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A59&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A59&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G59" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A59&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A59&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H59" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A59&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A59&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A59&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A59&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A59&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A59&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A59&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A59&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A59&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A59&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="I59" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A59&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A59&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J59" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A59&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A59&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K59" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A59&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A59&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="L59" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A59&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A59&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -7328,37 +7328,37 @@
         <v>9</v>
       </c>
       <c r="E60" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A60&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A60&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="F60" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A60&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A60&amp;"*")</f>
         <v>2</v>
       </c>
       <c r="G60" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A60&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A60&amp;"*")</f>
         <v>2</v>
       </c>
       <c r="H60" s="12">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A60&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A60&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A60&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A60&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A60&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A60&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A60&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A60&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A60&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A60&amp;"*")</f>
         <v>2</v>
       </c>
       <c r="I60" s="13">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A60&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A60&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="J60" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A60&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A60&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K60" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A60&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A60&amp;"*")</f>
         <v>2</v>
       </c>
       <c r="L60" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A60&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A60&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -7378,37 +7378,37 @@
         <v>29</v>
       </c>
       <c r="E61" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A61&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A61&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F61" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A61&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A61&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="G61" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A61&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A61&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H61" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A61&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A61&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A61&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A61&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A61&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A61&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A61&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A61&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A61&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A61&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="I61" s="14">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A61&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A61&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J61" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A61&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A61&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="K61" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A61&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A61&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="L61" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A61&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A61&amp;"*")
 </f>
         <v>2</v>
       </c>
@@ -7428,37 +7428,37 @@
         <v>27</v>
       </c>
       <c r="E62" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A62&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A62&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="F62" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A62&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A62&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G62" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A62&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A62&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H62" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A62&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A62&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A62&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A62&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A62&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A62&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A62&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A62&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A62&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A62&amp;"*")</f>
         <v>3</v>
       </c>
       <c r="I62" s="14">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A62&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A62&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J62" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A62&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A62&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="K62" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A62&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A62&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L62" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A62&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A62&amp;"*")
 </f>
         <v>1</v>
       </c>
@@ -7478,37 +7478,37 @@
         <v>62</v>
       </c>
       <c r="E63" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A63&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A63&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F63" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A63&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A63&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G63" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A63&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A63&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H63" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A63&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A63&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A63&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A63&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A63&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A63&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A63&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A63&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A63&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A63&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="I63" s="14">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A63&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A63&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J63" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A63&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A63&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K63" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A63&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A63&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L63" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A63&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A63&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -7528,37 +7528,37 @@
         <v>16</v>
       </c>
       <c r="E64" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A64&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A64&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="F64" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A64&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A64&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="G64" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A64&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A64&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H64" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A64&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A64&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A64&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A64&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A64&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A64&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A64&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A64&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A64&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A64&amp;"*")</f>
         <v>10</v>
       </c>
       <c r="I64" s="14">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A64&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A64&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J64" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A64&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A64&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K64" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A64&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A64&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L64" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A64&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A64&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -7578,37 +7578,37 @@
         <v>53</v>
       </c>
       <c r="E65" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A65&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A65&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F65" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A65&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A65&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G65" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A65&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A65&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H65" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A65&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A65&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A65&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A65&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A65&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A65&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A65&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A65&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A65&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A65&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="I65" s="14">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A65&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A65&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J65" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A65&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A65&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K65" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A65&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A65&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L65" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A65&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A65&amp;"*")
 </f>
         <v>2</v>
       </c>
@@ -7628,37 +7628,37 @@
         <v>43</v>
       </c>
       <c r="E66" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A66&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A66&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="F66" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A66&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A66&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G66" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A66&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A66&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H66" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A66&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A66&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A66&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A66&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A66&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A66&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A66&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A66&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A66&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A66&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="I66" s="14">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A66&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A66&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J66" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A66&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A66&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K66" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A66&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A66&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L66" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A66&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A66&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -7678,37 +7678,37 @@
         <v>62</v>
       </c>
       <c r="E67" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A67&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A67&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F67" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A67&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A67&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G67" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A67&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A67&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H67" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A67&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A67&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A67&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A67&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A67&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A67&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A67&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A67&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A67&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A67&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="I67" s="14">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A67&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A67&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J67" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A67&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A67&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K67" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A67&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A67&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L67" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A67&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A67&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -7728,37 +7728,37 @@
         <v>32</v>
       </c>
       <c r="E68" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A68&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A68&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="F68" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A68&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A68&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G68" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A68&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A68&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H68" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A68&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A68&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A68&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A68&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A68&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A68&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A68&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A68&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A68&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A68&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="I68" s="14">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A68&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A68&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J68" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A68&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A68&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K68" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A68&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A68&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="L68" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A68&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A68&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -7778,37 +7778,37 @@
         <v>17</v>
       </c>
       <c r="E69" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A69&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A69&amp;"*")
 </f>
         <v>1</v>
       </c>
       <c r="F69" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A69&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A69&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="G69" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A69&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A69&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="H69" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A69&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A69&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A69&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A69&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A69&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A69&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A69&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A69&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A69&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A69&amp;"*")</f>
         <v>3</v>
       </c>
       <c r="I69" s="14">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A69&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A69&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="J69" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A69&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A69&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K69" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A69&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A69&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L69" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A69&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A69&amp;"*")
 </f>
         <v>0</v>
       </c>
@@ -7828,37 +7828,37 @@
         <v>54</v>
       </c>
       <c r="E70" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$G$2:$G$100, "*"&amp;A70&amp;"*")
+        <f>COUNTIF(Suisse!$G$2:$G$100, "*"&amp;A70&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="F70" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$H$2:$H$100, "*"&amp;A70&amp;"*")</f>
+        <f>COUNTIF(Suisse!$H$2:$H$100, "*"&amp;A70&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="G70" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$I$2:$I$100, "*"&amp;A70&amp;"*")</f>
+        <f>COUNTIF(Suisse!$I$2:$I$100, "*"&amp;A70&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="H70" s="16">
-        <f>COUNTIF('Tournois en mode suisse'!$J$2:$J$100, "*"&amp;A70&amp;"*") + COUNTIF('Tournois en mode suisse'!$K$2:$K$100, "*"&amp;A70&amp;"*") + COUNTIF('Tournois en mode suisse'!$L$2:$L$100, "*"&amp;A70&amp;"*") + COUNTIF('Tournois en mode suisse'!$M$2:$M$100, "*"&amp;A70&amp;"*") + COUNTIF('Tournois en mode suisse'!$N$2:$N$100, "*"&amp;A70&amp;"*")</f>
+        <f>COUNTIF(Suisse!$J$2:$J$100, "*"&amp;A70&amp;"*") + COUNTIF(Suisse!$K$2:$K$100, "*"&amp;A70&amp;"*") + COUNTIF(Suisse!$L$2:$L$100, "*"&amp;A70&amp;"*") + COUNTIF(Suisse!$M$2:$M$100, "*"&amp;A70&amp;"*") + COUNTIF(Suisse!$N$2:$N$100, "*"&amp;A70&amp;"*")</f>
         <v>1</v>
       </c>
       <c r="I70" s="14">
-        <f>COUNTIF('Tournois double élimination'!$G$2:$G$100, "*"&amp;A70&amp;"*")</f>
+        <f>COUNTIF(Double!$G$2:$G$100, "*"&amp;A70&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="J70" s="14">
-        <f>COUNTIF('Tournois double élimination'!$H$2:$H$25, "*"&amp;A70&amp;"*")
+        <f>COUNTIF(Double!$H$2:$H$25, "*"&amp;A70&amp;"*")
 </f>
         <v>0</v>
       </c>
       <c r="K70" s="14">
-        <f>COUNTIF('Tournois double élimination'!$I$2:$I$25, "*"&amp;A70&amp;"*")</f>
+        <f>COUNTIF(Double!$I$2:$I$25, "*"&amp;A70&amp;"*")</f>
         <v>0</v>
       </c>
       <c r="L70" s="14">
-        <f>COUNTIF('Tournois double élimination'!$J$2:$J$25, "*"&amp;A70&amp;"*")
+        <f>COUNTIF(Double!$J$2:$J$25, "*"&amp;A70&amp;"*")
 </f>
         <v>0</v>
       </c>
